--- a/examples/network/dtu42380a1/results/strategy-1-2.xlsx
+++ b/examples/network/dtu42380a1/results/strategy-1-2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edxu96/GitHub/MatrixOptim.jl/examples/network/dtu42380a1/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{093F7F65-A93F-9B48-978F-97FFCB04CE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86978760-0F80-A14B-BBEB-EF63B5C73D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31940" yWindow="-180" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="35860" yWindow="940" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy-1-2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Demand</t>
   </si>
@@ -62,12 +72,45 @@
   </si>
   <si>
     <t xml:space="preserve"> Pack(OT)</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>ave inventory</t>
+  </si>
+  <si>
+    <t>ave fill rate (%)</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>ave regular (%)</t>
+  </si>
+  <si>
+    <t>ave overtime (%)</t>
+  </si>
+  <si>
+    <t>blending</t>
+  </si>
+  <si>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>promotion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -204,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +427,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -500,6 +555,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -545,8 +641,31 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,14 +1020,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="L15" zoomScale="220" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
@@ -917,12 +1040,17 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
       <c r="P1" t="s">
         <v>4</v>
       </c>
@@ -1208,58 +1336,32 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>55948</v>
-      </c>
-      <c r="D7">
-        <v>38245</v>
-      </c>
-      <c r="E7">
-        <v>16888</v>
-      </c>
-      <c r="F7">
-        <v>55855</v>
-      </c>
-      <c r="G7">
-        <v>38233</v>
-      </c>
-      <c r="H7">
-        <v>19767.3</v>
-      </c>
-      <c r="I7">
-        <v>1650</v>
-      </c>
-      <c r="J7">
-        <v>1488</v>
-      </c>
-      <c r="K7">
-        <v>5789.3000000000102</v>
-      </c>
-      <c r="L7">
-        <v>444324</v>
-      </c>
-      <c r="M7">
-        <v>88864.799999999901</v>
-      </c>
-      <c r="N7">
-        <v>227710.6</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="I7" s="2">
+        <f>AVERAGE(I3:I6)</f>
+        <v>2110</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ref="J7:K7" si="0">AVERAGE(J3:J6)</f>
+        <v>1243</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>814</v>
+      </c>
+      <c r="L7" s="2">
+        <f>AVERAGE(L3:L6) / 432000 / 1.028527778 * 100</f>
+        <v>73.439877190855711</v>
+      </c>
+      <c r="M7" s="2">
+        <f>AVERAGE(M3:M6) /  86400 / 1.028527778 * 100</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <f>AVERAGE(N3:N6) / 432000 * 100</f>
+        <v>33.00005787037037</v>
+      </c>
+      <c r="O7" s="2">
+        <f>AVERAGE(O3:O6)/ 86400 * 100</f>
         <v>0</v>
       </c>
     </row>
@@ -1268,25 +1370,25 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>55804</v>
+        <v>55948</v>
       </c>
       <c r="D8">
-        <v>39364</v>
+        <v>38245</v>
       </c>
       <c r="E8">
-        <v>16617</v>
+        <v>16888</v>
       </c>
       <c r="F8">
-        <v>55804</v>
+        <v>55855</v>
       </c>
       <c r="G8">
-        <v>39364</v>
+        <v>38233</v>
       </c>
       <c r="H8">
-        <v>18858.799999999901</v>
+        <v>19767.3</v>
       </c>
       <c r="I8">
         <v>1650</v>
@@ -1295,16 +1397,16 @@
         <v>1488</v>
       </c>
       <c r="K8">
-        <v>3046</v>
+        <v>5789.3000000000102</v>
       </c>
       <c r="L8">
-        <v>444323.99999999901</v>
+        <v>444324</v>
       </c>
       <c r="M8">
         <v>88864.799999999901</v>
       </c>
       <c r="N8">
-        <v>228053.59999999899</v>
+        <v>227710.6</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1324,25 +1426,25 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>55292</v>
+        <v>55804</v>
       </c>
       <c r="D9">
-        <v>39409</v>
+        <v>39364</v>
       </c>
       <c r="E9">
-        <v>14462</v>
+        <v>16617</v>
       </c>
       <c r="F9">
-        <v>55292</v>
+        <v>55804</v>
       </c>
       <c r="G9">
-        <v>39409</v>
+        <v>39364</v>
       </c>
       <c r="H9">
-        <v>14462</v>
+        <v>18858.799999999901</v>
       </c>
       <c r="I9">
         <v>1650</v>
@@ -1357,10 +1459,10 @@
         <v>444323.99999999901</v>
       </c>
       <c r="M9">
-        <v>60661</v>
+        <v>88864.799999999901</v>
       </c>
       <c r="N9">
-        <v>218326</v>
+        <v>228053.59999999899</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1380,25 +1482,25 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>53866</v>
+        <v>55292</v>
       </c>
       <c r="D10">
-        <v>39380</v>
+        <v>39409</v>
       </c>
       <c r="E10">
-        <v>13666</v>
+        <v>14462</v>
       </c>
       <c r="F10">
-        <v>53866</v>
+        <v>55292</v>
       </c>
       <c r="G10">
-        <v>39380</v>
+        <v>39409</v>
       </c>
       <c r="H10">
-        <v>13666</v>
+        <v>14462</v>
       </c>
       <c r="I10">
         <v>1650</v>
@@ -1413,10 +1515,10 @@
         <v>444323.99999999901</v>
       </c>
       <c r="M10">
-        <v>50036</v>
+        <v>60661</v>
       </c>
       <c r="N10">
-        <v>213824</v>
+        <v>218326</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1433,46 +1535,46 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>49559</v>
+        <v>53866</v>
       </c>
       <c r="D11">
-        <v>27461</v>
+        <v>39380</v>
       </c>
       <c r="E11">
-        <v>6738</v>
+        <v>13666</v>
       </c>
       <c r="F11">
-        <v>49424</v>
+        <v>53866</v>
       </c>
       <c r="G11">
-        <v>27396</v>
+        <v>39380</v>
       </c>
       <c r="H11">
-        <v>8673.4</v>
+        <v>13666</v>
       </c>
       <c r="I11">
-        <v>4172</v>
+        <v>1650</v>
       </c>
       <c r="J11">
-        <v>1734</v>
+        <v>1488</v>
       </c>
       <c r="K11">
-        <v>3014</v>
+        <v>3046</v>
       </c>
       <c r="L11">
-        <v>386716.4</v>
+        <v>444323.99999999901</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>50036</v>
       </c>
       <c r="N11">
-        <v>170986.8</v>
+        <v>213824</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1488,58 +1590,32 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>50155</v>
-      </c>
-      <c r="D12">
-        <v>27718</v>
-      </c>
-      <c r="E12">
-        <v>10495</v>
-      </c>
-      <c r="F12">
-        <v>50155</v>
-      </c>
-      <c r="G12">
-        <v>27718</v>
-      </c>
-      <c r="H12">
-        <v>10495</v>
-      </c>
-      <c r="I12">
-        <v>4172</v>
-      </c>
-      <c r="J12">
-        <v>1734</v>
-      </c>
-      <c r="K12">
-        <v>3014</v>
-      </c>
-      <c r="L12">
-        <v>402180</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>176736</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
+      <c r="I12" s="2">
+        <f>AVERAGE(I8:I11)</f>
+        <v>1650</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ref="J12:O12" si="1">AVERAGE(J8:J11)</f>
+        <v>1488</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>3731.8250000000025</v>
+      </c>
+      <c r="L12" s="2">
+        <f>AVERAGE(L8:L11)/ 432000 / 1.028527778 * 100</f>
+        <v>99.999999978393987</v>
+      </c>
+      <c r="M12" s="2">
+        <f>AVERAGE(M8:M11)/ 86400 / 1.028527778 * 100</f>
+        <v>81.14197070653475</v>
+      </c>
+      <c r="N12" s="2">
+        <f>AVERAGE(N8:N11)/ 432000 * 100</f>
+        <v>51.383923611111058</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1548,25 +1624,25 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>48959</v>
+        <v>49559</v>
       </c>
       <c r="D13">
-        <v>26460</v>
+        <v>27461</v>
       </c>
       <c r="E13">
-        <v>11565</v>
+        <v>6738</v>
       </c>
       <c r="F13">
-        <v>48959</v>
+        <v>49424</v>
       </c>
       <c r="G13">
-        <v>26460</v>
+        <v>27396</v>
       </c>
       <c r="H13">
-        <v>11565</v>
+        <v>8673.4</v>
       </c>
       <c r="I13">
         <v>4172</v>
@@ -1578,13 +1654,13 @@
         <v>3014</v>
       </c>
       <c r="L13">
-        <v>397526</v>
+        <v>386716.4</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>173968</v>
+        <v>170986.8</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1604,25 +1680,25 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>46259</v>
+        <v>50155</v>
       </c>
       <c r="D14">
-        <v>27059</v>
+        <v>27718</v>
       </c>
       <c r="E14">
-        <v>13377</v>
+        <v>10495</v>
       </c>
       <c r="F14">
-        <v>46259</v>
+        <v>50155</v>
       </c>
       <c r="G14">
-        <v>27059</v>
+        <v>27718</v>
       </c>
       <c r="H14">
-        <v>13377</v>
+        <v>10495</v>
       </c>
       <c r="I14">
         <v>4172</v>
@@ -1634,68 +1710,452 @@
         <v>3014</v>
       </c>
       <c r="L14">
+        <v>402180</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>176736</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>48959</v>
+      </c>
+      <c r="D15">
+        <v>26460</v>
+      </c>
+      <c r="E15">
+        <v>11565</v>
+      </c>
+      <c r="F15">
+        <v>48959</v>
+      </c>
+      <c r="G15">
+        <v>26460</v>
+      </c>
+      <c r="H15">
+        <v>11565</v>
+      </c>
+      <c r="I15">
+        <v>4172</v>
+      </c>
+      <c r="J15">
+        <v>1734</v>
+      </c>
+      <c r="K15">
+        <v>3014</v>
+      </c>
+      <c r="L15">
+        <v>397526</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>173968</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>46259</v>
+      </c>
+      <c r="D16">
+        <v>27059</v>
+      </c>
+      <c r="E16">
+        <v>13377</v>
+      </c>
+      <c r="F16">
+        <v>46259</v>
+      </c>
+      <c r="G16">
+        <v>27059</v>
+      </c>
+      <c r="H16">
+        <v>13377</v>
+      </c>
+      <c r="I16">
+        <v>4172</v>
+      </c>
+      <c r="J16">
+        <v>1734</v>
+      </c>
+      <c r="K16">
+        <v>3014</v>
+      </c>
+      <c r="L16">
         <v>400593</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>173390</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="I17" s="2">
+        <f>AVERAGE(I13:I16)</f>
+        <v>4172</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" ref="J17:O17" si="2">AVERAGE(J13:J16)</f>
+        <v>1734</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="2"/>
+        <v>3014</v>
+      </c>
+      <c r="L17" s="2">
+        <f>AVERAGE(L13:L16)/ 432000 / 1.028527778 * 100</f>
+        <v>89.293814854538127</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <f>AVERAGE(N13:N16)/ 432000 * 100</f>
+        <v>40.224583333333335</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22">
+      <c r="E21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23">
+      <c r="F21" s="6">
+        <v>2110</v>
+      </c>
+      <c r="G21" s="5">
+        <v>100</v>
+      </c>
+      <c r="I21" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25">
+      <c r="J21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="5">
+        <v>73.439877190855711</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+      <c r="O21" s="9">
+        <v>1</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D22" s="4"/>
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1243</v>
+      </c>
+      <c r="G22" s="5">
+        <v>100</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="5">
+        <v>33.00005787037037</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9">
+        <v>2</v>
+      </c>
+      <c r="P22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6">
+        <v>814</v>
+      </c>
+      <c r="G23" s="5">
+        <v>100</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="5">
+        <v>100</v>
+      </c>
+      <c r="L23" s="5">
+        <v>81.14197070653475</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2</v>
+      </c>
+      <c r="O23" s="9">
+        <v>1</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1650</v>
+      </c>
+      <c r="G24" s="5">
+        <v>100</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="5">
+        <v>51.383923611111058</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="9">
+        <v>2</v>
+      </c>
+      <c r="P24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1488</v>
+      </c>
+      <c r="G25" s="5">
+        <v>100</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="5">
+        <v>89.293814854538127</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3</v>
+      </c>
+      <c r="O25" s="9">
+        <v>1</v>
+      </c>
+      <c r="P25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3731.8250000000025</v>
+      </c>
+      <c r="G26" s="5">
+        <v>100</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="5">
+        <v>40.224583333333335</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9">
+        <v>2</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27">
         <v>1.0285277777777699</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26">
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5">
         <v>1</v>
       </c>
+      <c r="F27" s="6">
+        <v>4172</v>
+      </c>
+      <c r="G27" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5">
+        <v>2</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1734</v>
+      </c>
+      <c r="G28" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D29" s="4"/>
+      <c r="E29" s="5">
+        <v>3</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3014</v>
+      </c>
+      <c r="G29" s="5">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/examples/network/dtu42380a1/results/strategy-1-2.xlsx
+++ b/examples/network/dtu42380a1/results/strategy-1-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edxu96/GitHub/MatrixOptim.jl/examples/network/dtu42380a1/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86978760-0F80-A14B-BBEB-EF63B5C73D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90D69C8-2ECB-904C-9960-D6FD4B262C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35860" yWindow="940" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30300" yWindow="1920" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy-1-2" sheetId="1" r:id="rId1"/>
@@ -641,11 +641,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,18 +651,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1023,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L15" zoomScale="220" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="220" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,17 +1043,17 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
       <c r="P1" t="s">
         <v>4</v>
       </c>
@@ -1336,31 +1339,31 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f>AVERAGE(I3:I6)</f>
         <v>2110</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <f t="shared" ref="J7:K7" si="0">AVERAGE(J3:J6)</f>
         <v>1243</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f t="shared" si="0"/>
         <v>814</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <f>AVERAGE(L3:L6) / 432000 / 1.028527778 * 100</f>
         <v>73.439877190855711</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <f>AVERAGE(M3:M6) /  86400 / 1.028527778 * 100</f>
         <v>0</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <f>AVERAGE(N3:N6) / 432000 * 100</f>
         <v>33.00005787037037</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <f>AVERAGE(O3:O6)/ 86400 * 100</f>
         <v>0</v>
       </c>
@@ -1590,31 +1593,31 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <f>AVERAGE(I8:I11)</f>
         <v>1650</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <f t="shared" ref="J12:O12" si="1">AVERAGE(J8:J11)</f>
         <v>1488</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <f t="shared" si="1"/>
         <v>3731.8250000000025</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <f>AVERAGE(L8:L11)/ 432000 / 1.028527778 * 100</f>
         <v>99.999999978393987</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <f>AVERAGE(M8:M11)/ 86400 / 1.028527778 * 100</f>
         <v>81.14197070653475</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <f>AVERAGE(N8:N11)/ 432000 * 100</f>
         <v>51.383923611111058</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1844,257 +1847,257 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <f>AVERAGE(I13:I16)</f>
         <v>4172</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <f t="shared" ref="J17:O17" si="2">AVERAGE(J13:J16)</f>
         <v>1734</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <f t="shared" si="2"/>
         <v>3014</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <f>AVERAGE(L13:L16)/ 432000 / 1.028527778 * 100</f>
         <v>89.293814854538127</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <f>AVERAGE(N13:N16)/ 432000 * 100</f>
         <v>40.224583333333335</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D21" s="4">
+      <c r="D21" s="9">
         <v>1</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <v>2110</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>1</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="10">
         <v>73.439877190855711</v>
       </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
         <v>1</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="5">
         <v>1</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D22" s="4"/>
-      <c r="E22" s="5">
+      <c r="D22" s="9"/>
+      <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>1243</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="5" t="s">
+      <c r="I22" s="7"/>
+      <c r="J22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="10">
         <v>33.00005787037037</v>
       </c>
-      <c r="L22" s="5">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="9">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="5">
         <v>2</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D23" s="4"/>
-      <c r="E23" s="5">
+      <c r="D23" s="9"/>
+      <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="4">
         <v>814</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>2</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="10">
         <v>100</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="3">
         <v>81.14197070653475</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <v>2</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="5">
         <v>1</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D24" s="4">
+      <c r="D24" s="9">
         <v>2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="4">
         <v>1650</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="5" t="s">
+      <c r="I24" s="7"/>
+      <c r="J24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="10">
         <v>51.383923611111058</v>
       </c>
-      <c r="L24" s="5">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8"/>
-      <c r="O24" s="9">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="5">
         <v>2</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D25" s="4"/>
-      <c r="E25" s="5">
+      <c r="D25" s="9"/>
+      <c r="E25" s="3">
         <v>2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="4">
         <v>1488</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>100</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>3</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="10">
         <v>89.293814854538127</v>
       </c>
-      <c r="L25" s="5">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
         <v>3</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="5">
         <v>1</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D26" s="4"/>
-      <c r="E26" s="5">
+      <c r="D26" s="9"/>
+      <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>3731.8250000000025</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="5" t="s">
+      <c r="I26" s="7"/>
+      <c r="J26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="10">
         <v>40.224583333333335</v>
       </c>
-      <c r="L26" s="5">
-        <v>0</v>
-      </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="5">
         <v>2</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2102,16 +2105,16 @@
       <c r="B27">
         <v>1.0285277777777699</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="4">
         <v>4172</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
     </row>
@@ -2119,42 +2122,42 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5">
+      <c r="D28" s="9"/>
+      <c r="E28" s="3">
         <v>2</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <v>1734</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D29" s="4"/>
-      <c r="E29" s="5">
+      <c r="D29" s="9"/>
+      <c r="E29" s="3">
         <v>3</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="4">
         <v>3014</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/examples/network/dtu42380a1/results/strategy-1-2.xlsx
+++ b/examples/network/dtu42380a1/results/strategy-1-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edxu96/GitHub/MatrixOptim.jl/examples/network/dtu42380a1/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90D69C8-2ECB-904C-9960-D6FD4B262C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCFECAA-57CF-4745-A5E3-1F0840575E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="1920" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30300" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy-1-2" sheetId="1" r:id="rId1"/>
@@ -654,6 +654,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,12 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="220" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:L26"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1043,17 +1043,17 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
       <c r="P1" t="s">
         <v>4</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="I17" s="1">
         <f>AVERAGE(I13:I16)</f>
         <v>4172</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1911,8 +1911,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D21" s="9">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D21" s="7">
         <v>1</v>
       </c>
       <c r="E21" s="3">
@@ -1924,19 +1924,19 @@
       <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="8">
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="6">
         <v>73.439877190855711</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="8">
         <v>1</v>
       </c>
       <c r="O21" s="5">
@@ -1946,8 +1946,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D22" s="9"/>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D22" s="7"/>
       <c r="E22" s="3">
         <v>2</v>
       </c>
@@ -1957,17 +1957,17 @@
       <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="6">
         <v>33.00005787037037</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="9"/>
       <c r="O22" s="5">
         <v>2</v>
       </c>
@@ -1975,8 +1975,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D23" s="9"/>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D23" s="7"/>
       <c r="E23" s="3">
         <v>3</v>
       </c>
@@ -1986,19 +1986,19 @@
       <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="8">
         <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="6">
         <v>100</v>
       </c>
       <c r="L23" s="3">
         <v>81.14197070653475</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="8">
         <v>2</v>
       </c>
       <c r="O23" s="5">
@@ -2008,8 +2008,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D24" s="9">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D24" s="7">
         <v>2</v>
       </c>
       <c r="E24" s="3">
@@ -2021,17 +2021,17 @@
       <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="6">
         <v>51.383923611111058</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="9"/>
       <c r="O24" s="5">
         <v>2</v>
       </c>
@@ -2039,8 +2039,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D25" s="9"/>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D25" s="7"/>
       <c r="E25" s="3">
         <v>2</v>
       </c>
@@ -2050,19 +2050,19 @@
       <c r="G25" s="3">
         <v>100</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="8">
         <v>3</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="6">
         <v>89.293814854538127</v>
       </c>
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="8">
         <v>3</v>
       </c>
       <c r="O25" s="5">
@@ -2072,8 +2072,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D26" s="9"/>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D26" s="7"/>
       <c r="E26" s="3">
         <v>3</v>
       </c>
@@ -2083,17 +2083,17 @@
       <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="6">
         <v>40.224583333333335</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="N26" s="7"/>
+      <c r="N26" s="9"/>
       <c r="O26" s="5">
         <v>2</v>
       </c>
@@ -2101,11 +2101,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>1.0285277777777699</v>
-      </c>
-      <c r="D27" s="9">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D27" s="7">
         <v>3</v>
       </c>
       <c r="E27" s="3">
@@ -2118,11 +2115,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="9"/>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D28" s="7"/>
       <c r="E28" s="3">
         <v>2</v>
       </c>
@@ -2133,8 +2127,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D29" s="9"/>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D29" s="7"/>
       <c r="E29" s="3">
         <v>3</v>
       </c>
@@ -2147,6 +2141,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I23:I24"/>
@@ -2154,10 +2152,6 @@
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="N23:N24"/>
     <mergeCell ref="N25:N26"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
